--- a/meta/5-5-1.xlsx
+++ b/meta/5-5-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92832830-C528-4B80-91F7-54254AED06FB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477EA644-3119-4420-ABD2-C6F5E208055E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ГЛОБАЛЬНЫЕ" sheetId="3" r:id="rId1"/>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,22 +243,8 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -306,11 +292,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -347,24 +330,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -647,216 +626,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.15625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" ht="149.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="16"/>
-    </row>
-    <row r="19" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="17"/>
     </row>
-    <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="18"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="15"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/meta/5-5-1.xlsx
+++ b/meta/5-5-1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477EA644-3119-4420-ABD2-C6F5E208055E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC4C627-0D7E-4D2D-BD46-8096B3A06D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ГЛОБАЛЬНЫЕ" sheetId="3" r:id="rId1"/>
+    <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,23 +25,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
   <si>
+    <t>Цель</t>
+  </si>
+  <si>
+    <t>Задача</t>
+  </si>
+  <si>
+    <t>Индикатор</t>
+  </si>
+  <si>
     <t>2. Информация об организации</t>
   </si>
   <si>
+    <t>Организация</t>
+  </si>
+  <si>
+    <t>Контактное лицо (лица) / Координатор</t>
+  </si>
+  <si>
+    <t>Электронная почта контактного лица</t>
+  </si>
+  <si>
+    <t>Телефон контактного лица</t>
+  </si>
+  <si>
+    <t>Сайт организации (если есть)</t>
+  </si>
+  <si>
     <t>3. Определения и понятия</t>
   </si>
   <si>
+    <t>Определение</t>
+  </si>
+  <si>
     <t>Основные понятия:</t>
   </si>
   <si>
+    <t>Обоснование и толкование</t>
+  </si>
+  <si>
     <t>4. Источники данных и методы сбора</t>
   </si>
   <si>
+    <t>Источники данных</t>
+  </si>
+  <si>
+    <t>Методы сбора данных</t>
+  </si>
+  <si>
     <t>5. Метод расчета и другие методологические основы</t>
   </si>
   <si>
@@ -69,116 +105,79 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>Электронная почта контактного лица</t>
-  </si>
-  <si>
-    <t>Контактное лицо (лица) / Координатор</t>
-  </si>
-  <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>Индикатор</t>
-  </si>
-  <si>
-    <t>Задача</t>
-  </si>
-  <si>
-    <t>Цель</t>
-  </si>
-  <si>
-    <t>Определение</t>
-  </si>
-  <si>
-    <t>Сайт организации (если есть)</t>
-  </si>
-  <si>
-    <t>Телефон контактного лица</t>
-  </si>
-  <si>
-    <t>Обоснование и толкование</t>
-  </si>
-  <si>
-    <t>Источники данных</t>
-  </si>
-  <si>
-    <t>Методы сбора данных</t>
+    <t>Цель 5. Обеспечение гендерного равенства и расширение прав и возможностей всех женщин и девочек</t>
+  </si>
+  <si>
+    <t>5.1. Обеспечить всестороннее и реальное участие женщин и равные для них возможности для лидерства на всех уровнях принятия решений в политической, экономической и общественной жизни</t>
+  </si>
+  <si>
+    <t>5.5.1. Доля мест, занимаемых женщинами в 
+          а) национальных парламентах</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР
+(Отдел статистики труда и занятости)</t>
+  </si>
+  <si>
+    <t>Джайлобаева Г.Ж.</t>
+  </si>
+  <si>
+    <t>jailobaeva@stat.kg</t>
+  </si>
+  <si>
+    <t>(0312) 626076</t>
   </si>
   <si>
     <t>www.stat.kg</t>
   </si>
   <si>
-    <t>НСК КР</t>
-  </si>
-  <si>
-    <t>Джайлобаева Г.Ж.</t>
-  </si>
-  <si>
-    <t>jailobaeva@stat.kg</t>
-  </si>
-  <si>
-    <t>(0312) 626076</t>
-  </si>
-  <si>
-    <t>Обеспечить всестороннее и реальное участие женщин и равные для них возможности для лидерства на всех уровнях принятия решений в политической, экономической и общественной жизни</t>
-  </si>
-  <si>
-    <t>5.Обеспечение гендерного равенства и расширение прав и возможностей всех женщин и девочек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5.1 Доля мест, занимаемых женщинами в  а) национальных парламентах 
+    <t>Доля мест, занимаемых женщинами в Жогорку Кенеше КР, в процентах, определяется отношением численности женщин депутатов к общей численности депутатов Жогорку Кенеша КР</t>
+  </si>
+  <si>
+    <t>Жогорку Кенеш Кыргызской Республики — состоящий из 120 депутатов однопалатный парламент Киргизской Республики, законодательный орган государства.</t>
+  </si>
+  <si>
+    <t>При определении списка кандидатов политическая партия обязана учесть представительство - не более 70 процентов кандидатов одного пола, при этом разница очередности в списках кандидатов женщин и мужчин, выдвинутых от политических партий, не должна превышать трех позиций</t>
+  </si>
+  <si>
+    <t>Форма государственной статистической отчетности №1-ГОС-краткая «Отчет о численности работников, занятых в органах государственного управления»</t>
+  </si>
+  <si>
+    <t>Органы государственного управления предоставляют 28 января после отчетного года на бумажных носителях-территориальным органам статистики по месту нахождения или электронный формат - Нацстаткому Кыргызской Республики</t>
+  </si>
+  <si>
+    <t>Из данных Жогорку Кенеша на основе формы №1-ГОС краткая берутся данные по численности женщин депутатов, которые делятся на численность всех депутатов ЖК и умножаются на 100</t>
+  </si>
+  <si>
+    <t>Данные публикуются в статистическом сборнике «Кыргызстан в цифрах», «Женщины и мужчины Кыргызской Республики».</t>
+  </si>
+  <si>
+    <t>Данные на уровне страны.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Национальная платформа отчётности ЦУР: https://sustainabledevelopment-kyrgyzstan.github.io
+http://www.stat.kg/ru/publications/sbornik-kyrgyzstan-v-cifrah/
+http://www.stat.kg/ru/publications/sbornik-zhenshiny-i-muzhchiny-kyrgyzskoj-respubliki/
 </t>
-  </si>
-  <si>
-    <t>Органы государственного управления и власти представляют статистическую отчетность ежегодно по состоянию на 1 января по ф. №1-ГОС-краткая"Отчет о численности работников органов государственного управления"</t>
-  </si>
-  <si>
-    <t>Жогорку Кенеш КР  представляет в НСК статотчетность ф.1-Гос краткая</t>
-  </si>
-  <si>
-    <t>Данные публикуются с статистическом сборнике "Кыргызстан в цифрах", "Женщины и мужчины Кыргызской Республики"</t>
-  </si>
-  <si>
-    <t>Республика</t>
-  </si>
-  <si>
-    <t>Из данных Жогорку Кенеша на основе ф. №1-ГОС краткая берется данные по численности женщин депутаты делится на численность всех депутатов ЖК и умножается на 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При определении списка кандидатов политическая партия обязана учесть представительство:- не более 70 процентов кандидатов одного пола, при этом разница очередности в списках кандидатов женщин и мужчин, выдвинутых от политических партий, не должна превышать трех позиций Показатель измеряет степень равноправия доступа женщин к парламентским решениям. Участие женщин в парламентах является ключевым аспектом возможности участия женщин в политической и общественной жизни и поэтому связано с расширением их прав и возможностей. Показатель, равный 50%, отразит ситуацию, когда число женщин и мужчин в нижних палатах будет одинаковым.
-Значительная доля женщин в парламенте позволяет выявить новые проблемы в политических повестках дня, реализовать новые приоритетные направления на практике путем принятия решений и внедрения новых законов и практик. Включение перспективных направлений и интересов женщин является необходимым условием демократии и гендерного равенства и способствует качественному управлению. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Доля мест, занимаемых женщинами в Жогорку Кенеше КР, определяется отношением численности женщин депутатов к общей численности депутатов Жогорку Кенеша КР, в процентах</t>
-  </si>
-  <si>
-    <r>
-      <t>Жогорку Кене́ш Кыргы́зской Респу́блики</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  — состоящий из 120 депутатов однопалатный парламент Кыргызской Республики, законодательный орган государства. Доля мест, занимаемых женщинами в (а) национальных парламентах, по состоянию на 1 января отчетного года, в настоящее время измеряется как количество мест, занимаемых женщинами членами парламента в однопалатном парламенте, выраженное в процентах от всех занятых мест.
-Национальные парламенты могут быть двухпалатными или однопалатными. В данном случае показатель охватывает одну палату в однопалатном парламенте и нижнюю палату в двухпалатных парламентах. При этом показатель не охватывает верхнюю палату двухпалатных парламентов. Места обычно выигрываются членами на всеобщих парламентских выборах. Также места могут распределяться путем назначения, косвенных выборов, ротации членов или через дополнительные выборы.
-Места относятся к числу парламентских мандатов или количеству членов парламента.</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,67 +186,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -290,65 +237,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{BFDA6B02-33FF-4A2C-BB5F-B2B2C8D537FF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,14 +318,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -444,9 +358,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -476,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -625,218 +539,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50398F2E-429E-42CF-A4C4-BF195C48D214}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.83984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.15625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16" t="s">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="149.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="12" t="s">
+    <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="17"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="16" t="s">
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="16" t="s">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="14"/>
+      <c r="B26" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/meta/5-5-1.xlsx
+++ b/meta/5-5-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC4C627-0D7E-4D2D-BD46-8096B3A06D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,10 +110,6 @@
     <t>5.1. Обеспечить всестороннее и реальное участие женщин и равные для них возможности для лидерства на всех уровнях принятия решений в политической, экономической и общественной жизни</t>
   </si>
   <si>
-    <t>5.5.1. Доля мест, занимаемых женщинами в 
-          а) национальных парламентах</t>
-  </si>
-  <si>
     <t>Национальный статистический комитет КР
 (Отдел статистики труда и занятости)</t>
   </si>
@@ -126,9 +121,6 @@
   </si>
   <si>
     <t>(0312) 626076</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Доля мест, занимаемых женщинами в Жогорку Кенеше КР, в процентах, определяется отношением численности женщин депутатов к общей численности депутатов Жогорку Кенеша КР</t>
@@ -160,17 +152,34 @@
 http://www.stat.kg/ru/publications/sbornik-zhenshiny-i-muzhchiny-kyrgyzskoj-respubliki/
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">5.5.1 Доля мест, занимаемых женщинами:
+a) в национальном парламенте
+b) местных органах власти
+</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,32 +246,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{BFDA6B02-33FF-4A2C-BB5F-B2B2C8D537FF}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,11 +556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50398F2E-429E-42CF-A4C4-BF195C48D214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,8 +596,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,8 +610,8 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -602,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -618,15 +635,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -648,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -692,7 +709,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,7 +735,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,7 +743,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
